--- a/elastic_search/habr_serp_data.xlsx
+++ b/elastic_search/habr_serp_data.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="527">
+  <si>
+    <t>relevance</t>
+  </si>
   <si>
     <t>query_id</t>
   </si>
@@ -933,166 +936,181 @@
     <t>javascript фреймворки</t>
   </si>
   <si>
-    <t>О странностях Javascript</t>
-  </si>
-  <si>
-    <t>https://habr.com/ru/articles/904868/</t>
-  </si>
-  <si>
-    <t>alan_dani</t>
-  </si>
-  <si>
-    <t>2025-04-27T13:49:22.000Z</t>
-  </si>
-  <si>
-    <t>JavaScript *, JavaScript *, JavaScript *, JavaScript *, *, JavaScript</t>
-  </si>
-  <si>
-    <t>Теги:программированиеjavascript, программирование, javascript</t>
-  </si>
-  <si>
-    <t>Как делать внешние редиректы с JavaScript?</t>
-  </si>
-  <si>
-    <t>https://habr.com/ru/articles/906744/</t>
-  </si>
-  <si>
-    <t>maxxborer</t>
-  </si>
-  <si>
-    <t>2025-05-04T11:47:29.000Z</t>
-  </si>
-  <si>
-    <t>JavaScript * TypeScript * Интерфейсы * Браузеры, JavaScript * TypeScript * Интерфейсы * Браузеры, JavaScript *, JavaScript *, *, TypeScript *, TypeScript *, *, Интерфейсы *, Интерфейсы *, *, Браузеры, Браузеры, JavaScript, TypeScript, Интерфейсы, Браузеры</t>
-  </si>
-  <si>
-    <t>Теги:редиректперенаправлениеjavascripthrefassignxss, редирект, перенаправление, javascript, href, assign, xss</t>
-  </si>
-  <si>
-    <t>Параллельный цикл на worker. Многопоточность JS</t>
-  </si>
-  <si>
-    <t>https://habr.com/ru/articles/900488/</t>
-  </si>
-  <si>
-    <t>Panda37</t>
-  </si>
-  <si>
-    <t>2025-04-13T20:59:51.000Z</t>
-  </si>
-  <si>
-    <t>JavaScript * Высоконагруженные системы *, JavaScript * Высоконагруженные системы *, JavaScript *, JavaScript *, *, Высоконагруженные системы *, Высоконагруженные системы *, *, JavaScript, Высоконагруженные системы</t>
-  </si>
-  <si>
-    <t>Теги:workermultithreading, worker, multithreading</t>
-  </si>
-  <si>
-    <t>JavaScript: структуры данных и алгоритмы. Часть 11</t>
-  </si>
-  <si>
-    <t>https://habr.com/ru/articles/903842/</t>
+    <t>React vs Vue – подробное сравнение и перспективы</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/904698/</t>
+  </si>
+  <si>
+    <t>poslezakata</t>
+  </si>
+  <si>
+    <t>2025-04-26T16:34:07.000Z</t>
+  </si>
+  <si>
+    <t>JavaScript * ReactJS * VueJS *, JavaScript * ReactJS * VueJS *, JavaScript *, JavaScript *, *, ReactJS *, ReactJS *, *, VueJS *, VueJS *, *, JavaScript, ReactJS, VueJS</t>
+  </si>
+  <si>
+    <t>Теги:frontendaivuereactjavascript, frontend, ai, vue, react, javascript</t>
+  </si>
+  <si>
+    <t>Представляю Vue DnD Kit: Новая библиотека для создания интерфейсов с перетаскиванием в Vue 3</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/902384/</t>
+  </si>
+  <si>
+    <t>ZiZIGY</t>
+  </si>
+  <si>
+    <t>2025-04-23T18:21:04.000Z</t>
+  </si>
+  <si>
+    <t>VueJS *, VueJS *, VueJS *, VueJS *, *, VueJS</t>
+  </si>
+  <si>
+    <t>Теги:vue.jsdrag-and-dropdnd-kitfrontend-разработкаwysiwyglibrary, vue.js, drag-and-drop, dnd-kit, frontend-разработка, wysiwyg, library</t>
+  </si>
+  <si>
+    <t>Паттерны проектирования Composable в Vue</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/904818/</t>
+  </si>
+  <si>
+    <t>petrilaptev</t>
+  </si>
+  <si>
+    <t>2025-04-27T10:07:16.000Z</t>
+  </si>
+  <si>
+    <t>VueJS * JavaScript *, VueJS * JavaScript *, VueJS *, VueJS *, *, JavaScript *, JavaScript *, *, VueJS, JavaScript</t>
+  </si>
+  <si>
+    <t>Теги:composablecomposable architecturecomposablesvue.jsvuevue3vuejsпатерны, composable, composable architecture, composables, vue.js, vue, vue3, vuejs, патерны</t>
+  </si>
+  <si>
+    <t>Есть ли смысл применять SOLID в React?</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/908106/</t>
+  </si>
+  <si>
+    <t>maks88sgt</t>
+  </si>
+  <si>
+    <t>2025-05-10T14:22:53.000Z</t>
+  </si>
+  <si>
+    <t>ReactJS * JavaScript * Проектирование и рефакторинг *, ReactJS * JavaScript * Проектирование и рефакторинг *, ReactJS *, ReactJS *, *, JavaScript *, JavaScript *, *, Проектирование и рефакторинг *, Проектирование и рефакторинг *, *, ReactJS, JavaScript, Проектирование и рефакторинг</t>
+  </si>
+  <si>
+    <t>Теги:reactsolidreactjsreact.js, react, solid, reactjs, react.js</t>
+  </si>
+  <si>
+    <t>React Reconciliation: скрытый механизм, управляющий компонентами</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/901212/</t>
   </si>
   <si>
     <t>aio350</t>
   </si>
   <si>
-    <t>2025-05-06T10:05:09.000Z</t>
-  </si>
-  <si>
-    <t>Блог компании Timeweb CloudJavaScript * Алгоритмы * Машинное обучение * Статистика в IT, Блог компании Timeweb CloudJavaScript * Алгоритмы * Машинное обучение * Статистика в IT, Блог компании Timeweb Cloud, Блог компании Timeweb Cloud, JavaScript *, JavaScript *, *, Алгоритмы *, Алгоритмы *, *, Машинное обучение *, Машинное обучение *, *, Статистика в IT, Статистика в IT, Блог компании Timeweb Cloud, JavaScript, Алгоритмы, Машинное обучение, Статистика в IT</t>
-  </si>
-  <si>
-    <t>Теги:timeweb_статьиjavascriptalgorithmsdata structuresалгоритмыструктуры данныхmachine learningstatisticsмашинное обучениестатистика, timeweb_статьи, javascript, algorithms, data structures, алгоритмы, структуры данных, machine learning, statistics, машинное обучение, статистика</t>
-  </si>
-  <si>
-    <t>Почему JS (и TS) это плохой язык</t>
-  </si>
-  <si>
-    <t>https://habr.com/ru/articles/905480/</t>
-  </si>
-  <si>
-    <t>gitarizd</t>
-  </si>
-  <si>
-    <t>2025-04-29T10:23:06.000Z</t>
-  </si>
-  <si>
-    <t>JavaScript * TypeScript * ReactJS * React Native * Go *, JavaScript * TypeScript * ReactJS * React Native * Go *, JavaScript *, JavaScript *, *, TypeScript *, TypeScript *, *, ReactJS *, ReactJS *, *, React Native *, React Native *, *, Go *, Go *, *, JavaScript, TypeScript, ReactJS, React Native, Go</t>
-  </si>
-  <si>
-    <t>Теги:JSJavaScriptTypeScriptTSGoBackendFrontendReactDXDeveloper Experience, JS, JavaScript, TypeScript, TS, Go, Backend, Frontend, React, DX, Developer Experience</t>
-  </si>
-  <si>
-    <t>Понимание MVC и MVP (для разработчиков JavaScript и Backbone)</t>
-  </si>
-  <si>
-    <t>https://habr.com/ru/articles/910074/</t>
-  </si>
-  <si>
-    <t>a-v-gor</t>
-  </si>
-  <si>
-    <t>2025-05-18T11:51:25.000Z</t>
-  </si>
-  <si>
-    <t>JavaScript * Программирование * Веб-разработка *, JavaScript * Программирование * Веб-разработка *, JavaScript *, JavaScript *, *, Программирование *, Программирование *, *, Веб-разработка *, Веб-разработка *, *, JavaScript, Программирование, Веб-разработка</t>
-  </si>
-  <si>
-    <t>Теги:MVCMVPjavascript, MVC, MVP, javascript</t>
-  </si>
-  <si>
-    <t>@teqfw/di: Coding JavaScript like a Java boss</t>
-  </si>
-  <si>
-    <t>https://habr.com/ru/articles/901678/</t>
-  </si>
-  <si>
-    <t>flancer</t>
-  </si>
-  <si>
-    <t>2025-04-17T08:19:21.000Z</t>
-  </si>
-  <si>
-    <t>JavaScript * Java * PHP *, JavaScript * Java * PHP *, JavaScript *, JavaScript *, *, Java *, Java *, *, PHP *, PHP *, *, JavaScript, Java, PHP</t>
-  </si>
-  <si>
-    <t>Теги:teqfwjavascriptes6esmodulesdependency injectionioc, teqfw, javascript, es6, esmodules, dependency injection, ioc</t>
-  </si>
-  <si>
-    <t>Isomorphic-validation — Javascript библиотека, облегчающая валидацию пользовательского ввода</t>
-  </si>
-  <si>
-    <t>https://habr.com/ru/articles/907724/</t>
-  </si>
-  <si>
-    <t>itihon</t>
-  </si>
-  <si>
-    <t>2025-05-13T12:52:42.000Z</t>
-  </si>
-  <si>
-    <t>Веб-разработка * JavaScript * Функциональное программирование *, Веб-разработка * JavaScript * Функциональное программирование *, Веб-разработка *, Веб-разработка *, *, JavaScript *, JavaScript *, *, Функциональное программирование *, Функциональное программирование *, *, Веб-разработка, JavaScript, Функциональное программирование</t>
-  </si>
-  <si>
-    <t>Теги:валидация формбиблиотекифункциональное программированиеконечный автомат, валидация форм, библиотеки, функциональное программирование, конечный автомат</t>
-  </si>
-  <si>
-    <t>Когда JavaScript недостаточно: Практика разработки нативных модулей для React Native</t>
-  </si>
-  <si>
-    <t>https://habr.com/ru/articles/908690/</t>
-  </si>
-  <si>
-    <t>notReadySir</t>
-  </si>
-  <si>
-    <t>2025-05-12T13:37:01.000Z</t>
-  </si>
-  <si>
-    <t>React Native * Kotlin * Android *, React Native * Kotlin * Android *, React Native *, React Native *, *, Kotlin *, Kotlin *, *, Android *, Android *, *, React Native, Kotlin, Android</t>
-  </si>
-  <si>
-    <t>Теги:reactnativekotlinandroid, reactnative, kotlin, android</t>
+    <t>2025-04-22T08:05:59.000Z</t>
+  </si>
+  <si>
+    <t>Блог компании Timeweb CloudJavaScript * ReactJS * Алгоритмы * Веб-разработка *, Блог компании Timeweb CloudJavaScript * ReactJS * Алгоритмы * Веб-разработка *, Блог компании Timeweb Cloud, Блог компании Timeweb Cloud, JavaScript *, JavaScript *, *, ReactJS *, ReactJS *, *, Алгоритмы *, Алгоритмы *, *, Веб-разработка *, Веб-разработка *, *, Блог компании Timeweb Cloud, JavaScript, ReactJS, Алгоритмы, Веб-разработка</t>
+  </si>
+  <si>
+    <t>Теги:timeweb_статьи_переводjavascriptreact.jsreactjsreactreconcilationсогласованиеalgorithmалгоритм, timeweb_статьи_перевод, javascript, react.js, reactjs, react, reconcilation, согласование, algorithm, алгоритм</t>
+  </si>
+  <si>
+    <t>Solid.js как альтернатива (P)React+MobX на практике</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/907924/</t>
+  </si>
+  <si>
+    <t>DmitryKazakov8</t>
+  </si>
+  <si>
+    <t>2025-05-08T18:25:54.000Z</t>
+  </si>
+  <si>
+    <t>ReactJS * JavaScript * Веб-разработка * TypeScript *, ReactJS * JavaScript * Веб-разработка * TypeScript *, ReactJS *, ReactJS *, *, JavaScript *, JavaScript *, *, Веб-разработка *, Веб-разработка *, *, TypeScript *, TypeScript *, *, ReactJS, JavaScript, Веб-разработка, TypeScript</t>
+  </si>
+  <si>
+    <t>Теги:solidjsmobxreact, solidjs, mobx, react</t>
+  </si>
+  <si>
+    <t>C# vs Angular: Универсальные принципы Dependency Injection</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/903636/</t>
+  </si>
+  <si>
+    <t>artstesh</t>
+  </si>
+  <si>
+    <t>2025-04-26T09:00:28.000Z</t>
+  </si>
+  <si>
+    <t>C# * Angular *, C# * Angular *, C# *, C# *, *, Angular *, Angular *, *, C#, Angular</t>
+  </si>
+  <si>
+    <t>Теги:dependency injection, dependency injection</t>
+  </si>
+  <si>
+    <t>Как я создал клон Pinterest с использованием Vue 3 и FastAPI</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/903690/</t>
+  </si>
+  <si>
+    <t>dankupr21</t>
+  </si>
+  <si>
+    <t>2025-04-23T14:47:19.000Z</t>
+  </si>
+  <si>
+    <t>VueJS * Python * Веб-разработка * Open source * Социальные сети, VueJS * Python * Веб-разработка * Open source * Социальные сети, VueJS *, VueJS *, *, Python *, Python *, *, Веб-разработка *, Веб-разработка *, *, Open source *, Open source *, *, Социальные сети, Социальные сети, VueJS, Python, Веб-разработка, Open source, Социальные сети</t>
+  </si>
+  <si>
+    <t>Теги:Vue 3FastAPIpythonbackendfrontendfullstackopensoursesqlalchemypostgresqltailwindcss, Vue 3, FastAPI, python, backend, frontend, fullstack, opensourse, sqlalchemy, postgresql, tailwindcss</t>
+  </si>
+  <si>
+    <t>React Labs: View Transitions, Activity и другие обновления</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/908488/</t>
+  </si>
+  <si>
+    <t>2025-05-20T09:05:00.000Z</t>
+  </si>
+  <si>
+    <t>Блог компании Timeweb CloudJavaScript * ReactJS * Веб-разработка * Программирование *, Блог компании Timeweb CloudJavaScript * ReactJS * Веб-разработка * Программирование *, Блог компании Timeweb Cloud, Блог компании Timeweb Cloud, JavaScript *, JavaScript *, *, ReactJS *, ReactJS *, *, Веб-разработка *, Веб-разработка *, *, Программирование *, Программирование *, *, Блог компании Timeweb Cloud, JavaScript, ReactJS, Веб-разработка, Программирование</t>
+  </si>
+  <si>
+    <t>Теги:timeweb_статьи_переводjavascriptjsreact.jsreactjsreactnew featuresupdatesview transitionsview transitionactivityreact compilerновые возможностиобновления, timeweb_статьи_перевод, javascript, js, react.js, reactjs, react, new features, updates, view transitions, view transition, activity, react compiler, новые возможности, обновления</t>
+  </si>
+  <si>
+    <t>Рецензия на книгу “Изучаем Vue: основные концепции и практические паттерны”</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/902974/</t>
+  </si>
+  <si>
+    <t>SSP_blog</t>
+  </si>
+  <si>
+    <t>2025-04-22T07:09:42.000Z</t>
+  </si>
+  <si>
+    <t>Блог компании SSP SOFTУчебный процесс в ITКарьера в IT-индустрииЧитальный залVueJS *, Блог компании SSP SOFTУчебный процесс в ITКарьера в IT-индустрииЧитальный залVueJS *, Блог компании SSP SOFT, Блог компании SSP SOFT, Учебный процесс в IT, Учебный процесс в IT, Карьера в IT-индустрии, Карьера в IT-индустрии, Читальный зал, Читальный зал, VueJS *, VueJS *, *, Блог компании SSP SOFT, Учебный процесс в IT, Карьера в IT-индустрии, Читальный зал, VueJS</t>
+  </si>
+  <si>
+    <t>Теги:vuevue.jsvue3vue 3.0vuejsкнига по vuehfphfразработка на Vue, vue, vue.js, vue3, vue 3.0, vuejs, книга по vue, hfphf, разработка на Vue</t>
   </si>
   <si>
     <t>golang новичку</t>
@@ -1582,16 +1600,13 @@
   </si>
   <si>
     <t>Теги:unityигровой движоккитайразработка игрразработчики игрлокализация продуктов, unity, игровой движок, китай, разработка игр, разработчики игр, локализация продуктов</t>
-  </si>
-  <si>
-    <t>relevance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,14 +1618,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1645,19 +1652,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1960,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,40 +1976,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2016,34 +2020,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>246.35718</v>
+        <v>246.63338999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2054,34 +2058,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>236.78368</v>
+        <v>237.08142000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2092,34 +2096,34 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>224.20714000000001</v>
+        <v>224.43588</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2130,34 +2134,34 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>224.20714000000001</v>
+        <v>224.43588</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2168,34 +2172,34 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>219.70788999999999</v>
+        <v>220.03755000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2206,34 +2210,34 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2244,34 +2248,34 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2282,34 +2286,34 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2320,34 +2324,34 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2358,34 +2362,34 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2396,34 +2400,34 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>40.223700000000001</v>
+        <v>40.274284000000002</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2434,34 +2438,34 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>39.236297999999998</v>
+        <v>39.301926000000002</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2472,34 +2476,34 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <v>38.719070000000002</v>
+        <v>38.772635999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2510,34 +2514,34 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15">
-        <v>37.005485999999998</v>
+        <v>37.073610000000002</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2548,34 +2552,34 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>35.014698000000003</v>
+        <v>35.084408000000003</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2586,34 +2590,34 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
       <c r="F17">
-        <v>33.200629999999997</v>
+        <v>33.249862999999998</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2624,34 +2628,34 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18">
-        <v>33.200629999999997</v>
+        <v>33.249862999999998</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2662,34 +2666,34 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>30.191147000000001</v>
+        <v>30.195633000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2700,34 +2704,34 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>9</v>
       </c>
       <c r="F20">
-        <v>29.425331</v>
+        <v>29.479500000000002</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2738,34 +2742,34 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>29.425331</v>
+        <v>29.479500000000002</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2776,34 +2780,34 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>246.35718</v>
+        <v>246.63338999999999</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2814,34 +2818,34 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>236.78368</v>
+        <v>237.08142000000001</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2852,34 +2856,34 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24">
-        <v>224.20714000000001</v>
+        <v>224.43588</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2890,34 +2894,34 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25">
-        <v>224.20714000000001</v>
+        <v>224.43588</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2928,34 +2932,34 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26">
-        <v>219.70788999999999</v>
+        <v>220.03755000000001</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2966,34 +2970,34 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3004,34 +3008,34 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>7</v>
       </c>
       <c r="F28">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3042,34 +3046,34 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>8</v>
       </c>
       <c r="F29">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3080,34 +3084,34 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>9</v>
       </c>
       <c r="F30">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3118,34 +3122,34 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>208.83823000000001</v>
+        <v>209.10290000000001</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3156,34 +3160,34 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>66.194564999999997</v>
+        <v>66.244039999999998</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3194,34 +3198,34 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>66.194564999999997</v>
+        <v>66.244039999999998</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3232,34 +3236,34 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
-        <v>62.809950000000001</v>
+        <v>62.869278000000001</v>
       </c>
       <c r="G34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" t="s">
         <v>141</v>
-      </c>
-      <c r="H34" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" t="s">
-        <v>137</v>
-      </c>
-      <c r="J34" t="s">
-        <v>143</v>
-      </c>
-      <c r="K34" t="s">
-        <v>139</v>
-      </c>
-      <c r="L34" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3270,34 +3274,34 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
-        <v>61.245530000000002</v>
+        <v>61.308959999999999</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3308,34 +3312,34 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36">
-        <v>59.757899999999999</v>
+        <v>59.824973999999997</v>
       </c>
       <c r="G36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3346,34 +3350,34 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>58.730843</v>
+        <v>58.782775999999998</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3384,34 +3388,34 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>7</v>
       </c>
       <c r="F38">
-        <v>56.584240000000001</v>
+        <v>56.641129999999997</v>
       </c>
       <c r="G38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3422,34 +3426,34 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>8</v>
       </c>
       <c r="F39">
-        <v>52.810448000000001</v>
+        <v>52.874718000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3460,34 +3464,34 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>9</v>
       </c>
       <c r="F40">
-        <v>33.483868000000001</v>
+        <v>33.543194</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3498,34 +3502,34 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="F41">
-        <v>31.87172</v>
+        <v>31.935421000000002</v>
       </c>
       <c r="G41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3536,34 +3540,34 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>142.56458000000001</v>
+        <v>142.86761000000001</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3574,34 +3578,34 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>140.78043</v>
+        <v>141.02930000000001</v>
       </c>
       <c r="G43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3612,34 +3616,34 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44">
-        <v>135.04464999999999</v>
+        <v>135.27052</v>
       </c>
       <c r="G44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3650,34 +3654,34 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45">
-        <v>135.04464999999999</v>
+        <v>135.27052</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3688,34 +3692,34 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46">
         <v>5</v>
       </c>
       <c r="F46">
-        <v>135.04464999999999</v>
+        <v>135.27052</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3726,34 +3730,34 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>6</v>
       </c>
       <c r="F47">
-        <v>135.04464999999999</v>
+        <v>135.27052</v>
       </c>
       <c r="G47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3764,34 +3768,34 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>7</v>
       </c>
       <c r="F48">
-        <v>127.36657</v>
+        <v>127.60102999999999</v>
       </c>
       <c r="G48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3802,34 +3806,34 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>8</v>
       </c>
       <c r="F49">
-        <v>127.36657</v>
+        <v>127.60102999999999</v>
       </c>
       <c r="G49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -3840,34 +3844,34 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <v>9</v>
       </c>
       <c r="F50">
-        <v>127.36657</v>
+        <v>127.60102999999999</v>
       </c>
       <c r="G50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3878,34 +3882,34 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51">
-        <v>120.51461999999999</v>
+        <v>120.754555</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3916,34 +3920,34 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>67.956055000000006</v>
+        <v>68.005295000000004</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -3954,34 +3958,34 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53">
-        <v>62.110900000000001</v>
+        <v>62.176735000000001</v>
       </c>
       <c r="G53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3992,34 +3996,34 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54">
-        <v>62.110900000000001</v>
+        <v>62.176735000000001</v>
       </c>
       <c r="G54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K54" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -4030,34 +4034,34 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55">
-        <v>58.742460000000001</v>
+        <v>58.816090000000003</v>
       </c>
       <c r="G55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J55" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4068,34 +4072,34 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
       <c r="F56">
-        <v>41.340034000000003</v>
+        <v>41.359206999999998</v>
       </c>
       <c r="G56" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I56" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -4106,34 +4110,34 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57">
         <v>6</v>
       </c>
       <c r="F57">
-        <v>40.001220000000004</v>
+        <v>40.025157999999998</v>
       </c>
       <c r="G57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4144,34 +4148,34 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58">
         <v>7</v>
       </c>
       <c r="F58">
-        <v>40.001220000000004</v>
+        <v>40.025157999999998</v>
       </c>
       <c r="G58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H58" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I58" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4182,34 +4186,34 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59">
         <v>8</v>
       </c>
       <c r="F59">
-        <v>40.001220000000004</v>
+        <v>40.025157999999998</v>
       </c>
       <c r="G59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H59" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I59" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -4220,34 +4224,34 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60">
         <v>9</v>
       </c>
       <c r="F60">
-        <v>40.001220000000004</v>
+        <v>40.025157999999998</v>
       </c>
       <c r="G60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K60" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -4258,72 +4262,72 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="F61">
-        <v>38.746406999999998</v>
+        <v>38.774482999999996</v>
       </c>
       <c r="G61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>53.182983</v>
+        <v>872.99270000000001</v>
       </c>
       <c r="G62" t="s">
-        <v>304</v>
-      </c>
-      <c r="H62" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="H62" t="s">
+        <v>306</v>
+      </c>
       <c r="I62" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K62" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -4334,34 +4338,34 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63">
-        <v>49.738280000000003</v>
+        <v>726.61632999999995</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K63" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -4372,34 +4376,34 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
       <c r="F64">
-        <v>48.178016999999997</v>
+        <v>692.81664999999998</v>
       </c>
       <c r="G64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J64" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -4410,34 +4414,34 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65">
         <v>4</v>
       </c>
       <c r="F65">
-        <v>46.712665999999999</v>
+        <v>692.81664999999998</v>
       </c>
       <c r="G65" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H65" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4448,72 +4452,72 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66">
         <v>5</v>
       </c>
       <c r="F66">
-        <v>46.712665999999999</v>
+        <v>651.17470000000003</v>
       </c>
       <c r="G66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K66" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67">
         <v>6</v>
       </c>
       <c r="F67">
-        <v>46.712665999999999</v>
+        <v>651.17470000000003</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>335</v>
       </c>
       <c r="H67" t="s">
-        <v>136</v>
+        <v>336</v>
       </c>
       <c r="I67" t="s">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="J67" t="s">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="K67" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="L67" t="s">
-        <v>140</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4524,34 +4528,34 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68">
         <v>7</v>
       </c>
       <c r="F68">
-        <v>46.712665999999999</v>
+        <v>614.25476000000003</v>
       </c>
       <c r="G68" t="s">
-        <v>334</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
+      </c>
+      <c r="H68" t="s">
+        <v>342</v>
       </c>
       <c r="I68" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J68" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K68" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L68" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -4562,34 +4566,34 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69">
         <v>8</v>
       </c>
       <c r="F69">
-        <v>44.034041999999999</v>
+        <v>614.25476000000003</v>
       </c>
       <c r="G69" t="s">
-        <v>340</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
+      </c>
+      <c r="H69" t="s">
+        <v>348</v>
       </c>
       <c r="I69" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="J69" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K69" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L69" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -4600,34 +4604,34 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70">
         <v>9</v>
       </c>
       <c r="F70">
-        <v>44.034041999999999</v>
+        <v>614.25476000000003</v>
       </c>
       <c r="G70" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H70" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="I70" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="J70" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K70" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L70" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -4638,34 +4642,34 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71">
-        <v>44.034041999999999</v>
+        <v>581.29669999999999</v>
       </c>
       <c r="G71" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H71" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I71" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="J71" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K71" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L71" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -4676,34 +4680,34 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
-        <v>43.817191999999999</v>
+        <v>43.861899999999999</v>
       </c>
       <c r="G72" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H72" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I72" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="J72" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K72" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L72" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4714,34 +4718,34 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
-        <v>43.817191999999999</v>
+        <v>43.861899999999999</v>
       </c>
       <c r="G73" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H73" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="I73" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J73" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K73" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L73" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4752,34 +4756,34 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74">
         <v>3</v>
       </c>
       <c r="F74">
-        <v>43.237285999999997</v>
+        <v>43.269024000000002</v>
       </c>
       <c r="G74" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H74" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="I74" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="J74" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K74" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L74" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4790,34 +4794,34 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75">
         <v>4</v>
       </c>
       <c r="F75">
-        <v>40.81362</v>
+        <v>40.865349999999999</v>
       </c>
       <c r="G75" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H75" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="I75" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="J75" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K75" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L75" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4828,34 +4832,34 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76">
         <v>5</v>
       </c>
       <c r="F76">
-        <v>40.81362</v>
+        <v>40.865349999999999</v>
       </c>
       <c r="G76" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H76" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I76" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="J76" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K76" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L76" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4866,34 +4870,34 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77">
         <v>6</v>
       </c>
       <c r="F77">
-        <v>40.055349999999997</v>
+        <v>40.096220000000002</v>
       </c>
       <c r="G77" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H77" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="I77" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="J77" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K77" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L77" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4904,34 +4908,34 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78">
         <v>7</v>
       </c>
       <c r="F78">
-        <v>34.916213999999997</v>
+        <v>34.967995000000002</v>
       </c>
       <c r="G78" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H78" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="I78" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="J78" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K78" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L78" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4942,34 +4946,34 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>8</v>
       </c>
       <c r="F79">
-        <v>33.852145999999998</v>
+        <v>33.914462999999998</v>
       </c>
       <c r="G79" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H79" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="I79" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="J79" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K79" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L79" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4980,34 +4984,34 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80">
         <v>9</v>
       </c>
       <c r="F80">
-        <v>32.030999999999999</v>
+        <v>32.094769999999997</v>
       </c>
       <c r="G80" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H80" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="I80" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J80" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K80" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L80" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -5018,34 +5022,34 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81">
         <v>10</v>
       </c>
       <c r="F81">
-        <v>30.945830999999998</v>
+        <v>31.002800000000001</v>
       </c>
       <c r="G81" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H81" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="I81" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="J81" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K81" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L81" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -5056,34 +5060,34 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>62.700119999999998</v>
+        <v>62.738937</v>
       </c>
       <c r="G82" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H82" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="I82" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="J82" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K82" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L82" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -5094,34 +5098,34 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>60.048220000000001</v>
+        <v>60.094658000000003</v>
       </c>
       <c r="G83" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H83" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="I83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J83" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K83" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L83" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -5132,34 +5136,34 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84">
         <v>3</v>
       </c>
       <c r="F84">
-        <v>59.569560000000003</v>
+        <v>59.617843999999998</v>
       </c>
       <c r="G84" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H84" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I84" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="J84" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K84" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L84" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -5170,34 +5174,34 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85">
         <v>4</v>
       </c>
       <c r="F85">
-        <v>57.659584000000002</v>
+        <v>57.712085999999999</v>
       </c>
       <c r="G85" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H85" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I85" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="J85" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K85" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L85" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -5208,34 +5212,34 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86">
         <v>5</v>
       </c>
       <c r="F86">
-        <v>57.659584000000002</v>
+        <v>57.712085999999999</v>
       </c>
       <c r="G86" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H86" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="I86" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J86" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K86" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L86" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -5246,34 +5250,34 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87">
         <v>6</v>
       </c>
       <c r="F87">
-        <v>55.491889999999998</v>
+        <v>55.54927</v>
       </c>
       <c r="G87" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H87" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="I87" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="J87" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K87" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L87" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -5284,34 +5288,34 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88">
         <v>7</v>
       </c>
       <c r="F88">
-        <v>53.651924000000001</v>
+        <v>53.710410000000003</v>
       </c>
       <c r="G88" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H88" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="I88" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="J88" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="K88" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="L88" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -5322,34 +5326,34 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89">
         <v>8</v>
       </c>
       <c r="F89">
-        <v>53.511963000000002</v>
+        <v>53.573300000000003</v>
       </c>
       <c r="G89" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H89" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="I89" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="J89" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K89" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L89" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -5360,34 +5364,34 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90">
         <v>9</v>
       </c>
       <c r="F90">
-        <v>53.511963000000002</v>
+        <v>53.573300000000003</v>
       </c>
       <c r="G90" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H90" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="I90" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="J90" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K90" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="L90" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -5398,34 +5402,34 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91">
         <v>10</v>
       </c>
       <c r="F91">
-        <v>53.511963000000002</v>
+        <v>53.573300000000003</v>
       </c>
       <c r="G91" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H91" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="I91" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="J91" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K91" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L91" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -5436,34 +5440,34 @@
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>57.259720000000002</v>
+        <v>57.344634999999997</v>
       </c>
       <c r="G92" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H92" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="I92" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="J92" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K92" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L92" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -5474,34 +5478,34 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93">
-        <v>51.553153999999999</v>
+        <v>51.607460000000003</v>
       </c>
       <c r="G93" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H93" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="I93" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="J93" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K93" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="L93" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -5512,34 +5516,34 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="F94">
-        <v>45.434677000000001</v>
+        <v>45.500279999999997</v>
       </c>
       <c r="G94" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H94" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="I94" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="J94" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K94" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L94" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -5550,34 +5554,34 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95">
         <v>4</v>
       </c>
       <c r="F95">
-        <v>43.734009999999998</v>
+        <v>43.801895000000002</v>
       </c>
       <c r="G95" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="H95" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="I95" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="J95" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K95" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="L95" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -5588,34 +5592,34 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E96">
         <v>5</v>
       </c>
       <c r="F96">
-        <v>42.166615</v>
+        <v>42.236282000000003</v>
       </c>
       <c r="G96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5626,34 +5630,34 @@
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97">
         <v>6</v>
       </c>
       <c r="F97">
-        <v>39.809627999999996</v>
+        <v>39.824745</v>
       </c>
       <c r="G97" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H97" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="I97" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="J97" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K97" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L97" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5664,34 +5668,34 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98">
         <v>7</v>
       </c>
       <c r="F98">
-        <v>39.809627999999996</v>
+        <v>39.824745</v>
       </c>
       <c r="G98" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H98" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="I98" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="J98" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K98" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L98" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5702,34 +5706,34 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99">
         <v>8</v>
       </c>
       <c r="F99">
-        <v>39.809627999999996</v>
+        <v>39.824745</v>
       </c>
       <c r="G99" t="s">
+        <v>514</v>
+      </c>
+      <c r="H99" t="s">
+        <v>515</v>
+      </c>
+      <c r="I99" t="s">
+        <v>506</v>
+      </c>
+      <c r="J99" t="s">
+        <v>516</v>
+      </c>
+      <c r="K99" t="s">
         <v>508</v>
       </c>
-      <c r="H99" t="s">
-        <v>509</v>
-      </c>
-      <c r="I99" t="s">
-        <v>500</v>
-      </c>
-      <c r="J99" t="s">
-        <v>510</v>
-      </c>
-      <c r="K99" t="s">
-        <v>502</v>
-      </c>
       <c r="L99" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5740,34 +5744,34 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E100">
         <v>9</v>
       </c>
       <c r="F100">
-        <v>39.809627999999996</v>
+        <v>39.824745</v>
       </c>
       <c r="G100" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="H100" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="I100" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="J100" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K100" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L100" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5778,42 +5782,37 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E101">
         <v>10</v>
       </c>
       <c r="F101">
-        <v>38.687491999999999</v>
+        <v>38.710814999999997</v>
       </c>
       <c r="G101" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H101" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I101" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="J101" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="K101" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L101" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H69" r:id="rId1"/>
-    <hyperlink ref="H68" r:id="rId2"/>
-    <hyperlink ref="H62" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>